--- a/Parts/part list.xlsx
+++ b/Parts/part list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\EDm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8971AA-91D6-4E79-BB26-DAEE57630B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA2425-067D-40F6-A0AA-776E33503CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24C615C5-2505-4775-9804-9FBF79142332}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve"> Raspberry pi pico  </t>
   </si>
@@ -90,12 +90,6 @@
     <t xml:space="preserve"> Wire diodes resistor </t>
   </si>
   <si>
-    <t xml:space="preserve"> Aluminium parts </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brass wheel </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ceramic bearings </t>
   </si>
   <si>
@@ -187,6 +181,24 @@
   </si>
   <si>
     <t>Ender3</t>
+  </si>
+  <si>
+    <t>0,2mm brass wire (100m)</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006169662498.html?spm=a2g0o.productlist.main.1.59df8ntn8ntnGa&amp;algo_pvid=a01bf03c-9432-4ab6-9740-2caa8e9c3487&amp;algo_exp_id=a01bf03c-9432-4ab6-9740-2caa8e9c3487-0&amp;pdp_ext_f=%7B%22order%22%3A%221%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21EUR%21140.44%2160.39%21%21%211101.49%21473.65%21%40211b6a7a17439321840801078e46cc%2112000036091227929%21sea%21FR%212048486615%21X&amp;curPageLogUid=4kDjYQm3DZ3K&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>0,25mm brass wire (5kg)</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005008417132381.html?spm=a2g0o.productlist.main.1.54bc54f1rLEsOD&amp;algo_pvid=699e5bf7-99db-4ae7-883d-f0be27886207&amp;algo_exp_id=699e5bf7-99db-4ae7-883d-f0be27886207-0&amp;pdp_ext_f=%7B%22order%22%3A%22536%22%2C%22spu_best_type%22%3A%22price%22%2C%22eval%22%3A%221%22%2C%22orig_sl_item_id%22%3A%221005008417132381%22%2C%22orig_item_id%22%3A%221005006794617474%22%7D&amp;pdp_npi=4%40dis%21EUR%2173.43%2136.79%21%21%2179.37%2139.77%21%40211b680e17439325564913368e4f9b%2112000044969029082%21sea%21FR%212048486615%21X&amp;curPageLogUid=Eei0WI5yEiCT&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>0,18 molybdenum wire (2km)</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006203319769.html?algo_pvid=fe23dc84-36e1-49fc-addf-22b52382a6c1&amp;algo_exp_id=fe23dc84-36e1-49fc-addf-22b52382a6c1-2&amp;pdp_ext_f=%7B%22order%22%3A%22715%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21EUR%212.37%212.37%21%21%2118.60%2118.60%21%40211b65de17439331920877503e1250%2112000036254573666%21sea%21FR%212048486615%21X&amp;curPageLogUid=HvWjZ8sV5cst&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
   </si>
 </sst>
 </file>
@@ -229,10 +241,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,16 +559,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D981CE-1CAC-49B5-847D-FA02DAFE679B}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="11.5546875" style="2"/>
     <col min="5" max="5" width="134.109375" customWidth="1"/>
     <col min="23" max="23" width="8.5546875" customWidth="1"/>
   </cols>
@@ -568,7 +580,7 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>5</v>
       </c>
       <c r="D1" s="1">
@@ -576,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,15 +598,15 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D31" si="0">C2*B2</f>
+        <f t="shared" ref="D2:D29" si="0">C2*B2</f>
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -604,7 +616,7 @@
       <c r="B3">
         <v>50</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="1">
@@ -612,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,15 +634,15 @@
       <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f>C45</f>
+        <f>C43</f>
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,15 +652,15 @@
       <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="1">
         <f>C5</f>
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,14 +670,14 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -674,14 +686,14 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -690,7 +702,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>20</v>
       </c>
       <c r="D8" s="1">
@@ -698,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -708,7 +720,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>15</v>
       </c>
       <c r="D9" s="1">
@@ -716,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,7 +738,7 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="1">
@@ -734,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -744,7 +756,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>15</v>
       </c>
       <c r="D11" s="1">
@@ -752,51 +764,51 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13" si="1">C13*B13</f>
         <v>5</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>2.5</v>
       </c>
       <c r="D14" s="1">
@@ -804,7 +816,7 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,7 +826,7 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>8</v>
       </c>
       <c r="D15" s="1">
@@ -822,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -832,7 +844,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="1">
@@ -840,17 +852,17 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>5</v>
       </c>
       <c r="D17" s="1">
@@ -865,7 +877,7 @@
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.8</v>
       </c>
       <c r="D18" s="1">
@@ -873,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -883,7 +895,7 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="1">
@@ -891,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -901,7 +913,7 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>20</v>
       </c>
       <c r="D20" s="1">
@@ -909,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,7 +931,7 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>2.5</v>
       </c>
       <c r="D21" s="1">
@@ -927,7 +939,7 @@
         <v>2.5</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -937,7 +949,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="1">
@@ -945,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -955,7 +967,7 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="1">
@@ -963,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -973,7 +985,7 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>1.5</v>
       </c>
       <c r="D24" s="1">
@@ -981,7 +993,7 @@
         <v>1.5</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -991,7 +1003,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>5</v>
       </c>
       <c r="D25" s="1">
@@ -1004,14 +1016,17 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1019,14 +1034,17 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1034,77 +1052,95 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1">
+        <f>SUM(D1:D29)</f>
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <f>C34*B34</f>
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>110</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C35*B35</f>
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
         <v>53</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="1">
-        <f>SUM(D1:D31)</f>
-        <v>280.5</v>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1">
+        <f>C36*B36</f>
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
